--- a/Tickets/Normal Tickets/Ticket 32434 - Address Verfication/Testing/Test Plan.xlsx
+++ b/Tickets/Normal Tickets/Ticket 32434 - Address Verfication/Testing/Test Plan.xlsx
@@ -1,24 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub_v2\WIP\Tickets\Normal Tickets\Ticket 32434 - Address Verfication\Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{465F721C-AF8F-431F-838B-517D65ACA207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7E85D71-7DEF-4F27-A2AC-57DCC83DE408}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32715" yWindow="630" windowWidth="21600" windowHeight="13125" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="40" r:id="rId1"/>
     <sheet name="Case #1" sheetId="33" r:id="rId2"/>
-    <sheet name="Case #2" sheetId="41" r:id="rId3"/>
-    <sheet name="Case #3" sheetId="42" r:id="rId4"/>
-    <sheet name="Case #4" sheetId="43" r:id="rId5"/>
-    <sheet name="Case #5" sheetId="44" r:id="rId6"/>
+    <sheet name="Case #2" sheetId="43" r:id="rId3"/>
+    <sheet name="Case #5" sheetId="44" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'Case #1'!$1:$5</definedName>
@@ -40,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="40">
   <si>
     <t>Test Case #</t>
   </si>
@@ -133,9 +131,6 @@
   </si>
   <si>
     <t>Dev Environment</t>
-  </si>
-  <si>
-    <t>B2C - Import System</t>
   </si>
   <si>
     <t>1) SSMS
@@ -160,6 +155,12 @@
   </si>
   <si>
     <t>Staged records to be processed</t>
+  </si>
+  <si>
+    <t>Customers Created</t>
+  </si>
+  <si>
+    <t>Sales Orders Created</t>
   </si>
 </sst>
 </file>
@@ -284,7 +285,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -343,32 +344,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -376,26 +398,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -412,6 +416,324 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>458581</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>1220</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{510A26ED-2208-C715-1FF7-11C6C54577E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="95250" y="4429125"/>
+          <a:ext cx="9897856" cy="8745170"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2839366</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>95648</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0CF4E5D-7C0F-D0CC-E91E-B3A7D6BE8BBA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="95250" y="13658850"/>
+          <a:ext cx="6563641" cy="2848373"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>972604</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>86325</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{009EE7E2-74B5-1980-0894-345F902A4E0C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="95250" y="17221200"/>
+          <a:ext cx="7554379" cy="4296375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>334739</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>87025</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D160D34B-FC13-33C2-DCE9-456D63E25EA6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="95250" y="4429125"/>
+          <a:ext cx="9774014" cy="9316750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2058207</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>86731</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1191D34-E00F-8631-6A89-03AFB137F7FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="95250" y="13982700"/>
+          <a:ext cx="5782482" cy="7211431"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2010575</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>39122</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F39640B2-AAC0-CFB9-03B6-FADCA84ED270}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="95250" y="21269325"/>
+          <a:ext cx="5734850" cy="7325747"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>166</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1420342</xdr:colOff>
+      <xdr:row>184</xdr:row>
+      <xdr:rowOff>19459</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91B90046-6F3D-4467-1E45-1F55F7061FD3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="95250" y="28879800"/>
+          <a:ext cx="8002117" cy="2934109"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -735,10 +1057,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -778,7 +1100,7 @@
         <v>30</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E2" s="17"/>
     </row>
@@ -788,162 +1110,146 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>30</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E3" s="17"/>
     </row>
-    <row r="4" spans="1:5" ht="84" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
-        <f>A3+1</f>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="28"/>
+    </row>
+    <row r="5" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="20"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="28"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="23"/>
+      <c r="C7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="26"/>
+      <c r="E7" s="27"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="23"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="27"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="23"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="23"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+    </row>
+    <row r="11" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="21"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="9">
+        <v>1</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+    </row>
+    <row r="14" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="9">
+        <v>2</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="9">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="17"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="23"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="25"/>
-    </row>
-    <row r="6" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="23"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="25"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="21"/>
-      <c r="E8" s="22"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="22"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-    </row>
-    <row r="12" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="24"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="9">
-        <v>1</v>
-      </c>
-      <c r="B14" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-    </row>
-    <row r="15" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="9">
-        <v>2</v>
-      </c>
-      <c r="B15" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="9">
-        <v>3</v>
-      </c>
-      <c r="B16" s="27" t="s">
+      <c r="B15" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="B14:E14"/>
     <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="D9:E9"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="D10:E10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="B11:E11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -955,11 +1261,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -974,60 +1280,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="36"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="33"/>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="27">
+      <c r="B2" s="34"/>
+      <c r="C2" s="22">
         <f>'Test Cases'!A2</f>
         <v>1</v>
       </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="27" t="str">
+      <c r="B3" s="34"/>
+      <c r="C3" s="22" t="str">
         <f>'Test Cases'!B2</f>
         <v>eCat Staging Service</v>
       </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="27" t="str">
+      <c r="B4" s="34"/>
+      <c r="C4" s="22" t="str">
         <f>'Test Cases'!D2</f>
         <v>1) SSMS
 2) Service running</v>
       </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
       <c r="D5" s="18" t="s">
         <v>19</v>
       </c>
@@ -1039,105 +1345,121 @@
       </c>
     </row>
     <row r="6" spans="1:6" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
     </row>
     <row r="7" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="33">
+      <c r="A7" s="31">
         <v>1</v>
       </c>
-      <c r="B7" s="34"/>
+      <c r="B7" s="32"/>
       <c r="C7" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>34</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
         <v>26</v>
       </c>
       <c r="F7" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="10" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="31">
+        <v>2</v>
+      </c>
+      <c r="B8" s="32"/>
+      <c r="C8" s="17" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="10" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="33">
-        <v>2</v>
-      </c>
-      <c r="B8" s="34"/>
-      <c r="C8" s="17" t="s">
-        <v>36</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
     </row>
     <row r="10" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="29"/>
-      <c r="B10" s="30"/>
+      <c r="A10" s="36"/>
+      <c r="B10" s="37"/>
       <c r="C10" s="17"/>
       <c r="D10" s="16"/>
       <c r="E10" s="15"/>
       <c r="F10" s="11"/>
     </row>
     <row r="11" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
     </row>
     <row r="12" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="33"/>
-      <c r="B12" s="34"/>
+      <c r="A12" s="31"/>
+      <c r="B12" s="32"/>
       <c r="C12" s="19"/>
       <c r="D12" s="13"/>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
     </row>
     <row r="13" spans="1:6" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="24"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="21"/>
     </row>
     <row r="14" spans="1:6" ht="99.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="31"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
+      <c r="A14" s="35"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+    </row>
+    <row r="71" spans="2:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B71" s="38" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B91" s="38" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B92" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A13:F13"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="A8:B8"/>
@@ -1150,25 +1472,21 @@
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A13:F13"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="5" scale="94" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{894AC715-FA97-4EA1-933E-62FC2DFB2AEA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CD6F8A1-36D5-485D-8A7C-31AFF7DA6804}">
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:F4"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1183,60 +1501,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="36"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="33"/>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="27">
+      <c r="B2" s="34"/>
+      <c r="C2" s="22">
         <f>'Test Cases'!A3</f>
         <v>2</v>
       </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="27" t="str">
+      <c r="B3" s="34"/>
+      <c r="C3" s="22" t="str">
         <f>'Test Cases'!B3</f>
-        <v>B2C - Import System</v>
-      </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
+        <v>SPS - EDI - System</v>
+      </c>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="27" t="str">
+      <c r="B4" s="34"/>
+      <c r="C4" s="22" t="str">
         <f>'Test Cases'!D3</f>
         <v>1) SSMS
 2) Service running</v>
       </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
       <c r="D5" s="18" t="s">
         <v>19</v>
       </c>
@@ -1248,105 +1566,112 @@
       </c>
     </row>
     <row r="6" spans="1:6" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
     </row>
     <row r="7" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="33">
+      <c r="A7" s="31">
         <v>1</v>
       </c>
-      <c r="B7" s="34"/>
+      <c r="B7" s="32"/>
       <c r="C7" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>26</v>
       </c>
       <c r="F7" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="10" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="31">
+        <v>2</v>
+      </c>
+      <c r="B8" s="32"/>
+      <c r="C8" s="17" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="10" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="33">
-        <v>2</v>
-      </c>
-      <c r="B8" s="34"/>
-      <c r="C8" s="17" t="s">
-        <v>36</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
     </row>
     <row r="10" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="29"/>
-      <c r="B10" s="30"/>
+      <c r="A10" s="36"/>
+      <c r="B10" s="37"/>
       <c r="C10" s="17"/>
       <c r="D10" s="16"/>
       <c r="E10" s="15"/>
       <c r="F10" s="11"/>
     </row>
     <row r="11" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
     </row>
     <row r="12" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="33"/>
-      <c r="B12" s="34"/>
+      <c r="A12" s="31"/>
+      <c r="B12" s="32"/>
       <c r="C12" s="19"/>
       <c r="D12" s="13"/>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
     </row>
     <row r="13" spans="1:6" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="24"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="21"/>
     </row>
     <row r="14" spans="1:6" ht="99.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="31"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
+      <c r="A14" s="35"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:F3"/>
     <mergeCell ref="A11:F11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A13:F13"/>
@@ -1357,24 +1682,18 @@
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A9:F9"/>
     <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:F4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F58533DE-6FCE-4902-959C-E29DD544B96A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85F2BB41-FB7B-441E-BE16-835A6A15903A}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22:D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1389,60 +1708,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="36"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="33"/>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="27">
+      <c r="B2" s="34"/>
+      <c r="C2" s="22">
         <f>'Test Cases'!A4</f>
-        <v>3</v>
-      </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
+        <v>0</v>
+      </c>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="27" t="str">
+      <c r="B3" s="34"/>
+      <c r="C3" s="22">
         <f>'Test Cases'!B4</f>
-        <v>SPS - EDI - System</v>
-      </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
+        <v>0</v>
+      </c>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="27" t="str">
+      <c r="B4" s="34"/>
+      <c r="C4" s="22">
         <f>'Test Cases'!D4</f>
-        <v>1) SSMS
-2) Service running</v>
-      </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
+        <v>0</v>
+      </c>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
       <c r="D5" s="18" t="s">
         <v>19</v>
       </c>
@@ -1454,105 +1772,112 @@
       </c>
     </row>
     <row r="6" spans="1:6" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
     </row>
     <row r="7" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="33">
+      <c r="A7" s="31">
         <v>1</v>
       </c>
-      <c r="B7" s="34"/>
+      <c r="B7" s="32"/>
       <c r="C7" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>26</v>
       </c>
       <c r="F7" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="10" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="31">
+        <v>2</v>
+      </c>
+      <c r="B8" s="32"/>
+      <c r="C8" s="17" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="10" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="33">
-        <v>2</v>
-      </c>
-      <c r="B8" s="34"/>
-      <c r="C8" s="17" t="s">
-        <v>36</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
     </row>
     <row r="10" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="29"/>
-      <c r="B10" s="30"/>
+      <c r="A10" s="36"/>
+      <c r="B10" s="37"/>
       <c r="C10" s="17"/>
       <c r="D10" s="16"/>
       <c r="E10" s="15"/>
       <c r="F10" s="11"/>
     </row>
     <row r="11" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
     </row>
     <row r="12" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="33"/>
-      <c r="B12" s="34"/>
+      <c r="A12" s="31"/>
+      <c r="B12" s="32"/>
       <c r="C12" s="19"/>
       <c r="D12" s="13"/>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
     </row>
     <row r="13" spans="1:6" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="24"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="21"/>
     </row>
     <row r="14" spans="1:6" ht="99.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="31"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
+      <c r="A14" s="35"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:F3"/>
     <mergeCell ref="A11:F11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A13:F13"/>
@@ -1563,439 +1888,27 @@
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A9:F9"/>
     <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:F4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CD6F8A1-36D5-485D-8A7C-31AFF7DA6804}">
-  <dimension ref="A1:F14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:F4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="1.42578125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="45.140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="42.85546875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="42.85546875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="42.42578125" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="36"/>
-    </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="27">
-        <f>'Test Cases'!A4</f>
-        <v>3</v>
-      </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-    </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="27" t="str">
-        <f>'Test Cases'!B4</f>
-        <v>SPS - EDI - System</v>
-      </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-    </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="27" t="str">
-        <f>'Test Cases'!D4</f>
-        <v>1) SSMS
-2) Service running</v>
-      </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-    </row>
-    <row r="7" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="33">
-        <v>1</v>
-      </c>
-      <c r="B7" s="34"/>
-      <c r="C7" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="10" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="33">
-        <v>2</v>
-      </c>
-      <c r="B8" s="34"/>
-      <c r="C8" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-    </row>
-    <row r="10" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="29"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="11"/>
-    </row>
-    <row r="11" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-    </row>
-    <row r="12" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="33"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-    </row>
-    <row r="13" spans="1:6" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="24"/>
-    </row>
-    <row r="14" spans="1:6" ht="99.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="31"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-    </row>
-  </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:F4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85F2BB41-FB7B-441E-BE16-835A6A15903A}">
-  <dimension ref="A1:F14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:F14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="1.42578125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="45.140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="42.85546875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="42.85546875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="42.42578125" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="36"/>
-    </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="27">
-        <f>'Test Cases'!A5</f>
-        <v>0</v>
-      </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-    </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="27">
-        <f>'Test Cases'!B5</f>
-        <v>0</v>
-      </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-    </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="27">
-        <f>'Test Cases'!D5</f>
-        <v>0</v>
-      </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-    </row>
-    <row r="7" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="33">
-        <v>1</v>
-      </c>
-      <c r="B7" s="34"/>
-      <c r="C7" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="10" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="33">
-        <v>2</v>
-      </c>
-      <c r="B8" s="34"/>
-      <c r="C8" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-    </row>
-    <row r="10" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="29"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="11"/>
-    </row>
-    <row r="11" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-    </row>
-    <row r="12" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="33"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-    </row>
-    <row r="13" spans="1:6" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="24"/>
-    </row>
-    <row r="14" spans="1:6" ht="99.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="31"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-    </row>
-  </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:F4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1a638d2c-e7c0-419c-9191-e92086f67d97">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="84e25877-5f26-4dc3-9598-48e40fb4ec5c" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006C2685AC3E5C784C94699E6BCD3719C2" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="bc4032ed2b9525712665d7b053f58e3c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1a638d2c-e7c0-419c-9191-e92086f67d97" xmlns:ns3="84e25877-5f26-4dc3-9598-48e40fb4ec5c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="60642ebedafdd5f29702615754875760" ns2:_="" ns3:_="">
     <xsd:import namespace="1a638d2c-e7c0-419c-9191-e92086f67d97"/>
@@ -2226,30 +2139,35 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1a638d2c-e7c0-419c-9191-e92086f67d97">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="84e25877-5f26-4dc3-9598-48e40fb4ec5c" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{433CEB9C-4DCB-4DF9-8E44-99AD43459D1C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D54ED65-933A-4F90-B95A-15C952E0CAEF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1336CC8-439A-433F-AFCD-D3738BD4CF84}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1a638d2c-e7c0-419c-9191-e92086f67d97"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="84e25877-5f26-4dc3-9598-48e40fb4ec5c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1E225A3-DBF5-416D-8482-D016D280651E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2268,21 +2186,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1336CC8-439A-433F-AFCD-D3738BD4CF84}">
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{433CEB9C-4DCB-4DF9-8E44-99AD43459D1C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="1a638d2c-e7c0-419c-9191-e92086f67d97"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="84e25877-5f26-4dc3-9598-48e40fb4ec5c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D54ED65-933A-4F90-B95A-15C952E0CAEF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>